--- a/front/public/exemple.xlsx
+++ b/front/public/exemple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DenisWoeffraytokiwiS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696B015-ECAC-4450-9F09-41F68BFD0866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E0D988-4FB4-404D-AFF2-E7AF2DA74BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5886E4D8-1E08-40EF-AB39-282A2777C95D}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exemple!$A$1:$A$2</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">exemple!$B$1:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -71,41 +78,41 @@
     <t>competences</t>
   </si>
   <si>
-    <t>Catcheur</t>
-  </si>
-  <si>
-    <t>john.cena@wwe.com</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>Super Hero</t>
+  </si>
+  <si>
+    <t>daredevil@marvel.com</t>
+  </si>
+  <si>
+    <t>["monday","tuesday"]</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>23:00</t>
   </si>
   <si>
     <t>["Wrestling","Acting"]</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>["monday","tuesday"]</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
+    <t>MotDePasse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +120,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,19 +165,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <protection locked="1" hidden="0"/>
@@ -150,9 +205,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -181,8 +233,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{1B958879-8A43-42D6-8950-8A118211916F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="10" unboundColumnsRight="1">
+    <queryTableFields count="9">
       <queryTableField id="1" name="name" tableColumnId="1"/>
       <queryTableField id="2" name="title" tableColumnId="2"/>
       <queryTableField id="3" name="email" tableColumnId="3"/>
@@ -191,30 +243,42 @@
       <queryTableField id="6" name="schedule_start" tableColumnId="6"/>
       <queryTableField id="7" name="schedule_end" tableColumnId="7"/>
       <queryTableField id="8" name="competences" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC6FFE91-4810-4CA8-A023-5E96F7028CC6}" name="exemple" displayName="exemple" ref="B1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B1:I2" xr:uid="{EC6FFE91-4810-4CA8-A023-5E96F7028CC6}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC6FFE91-4810-4CA8-A023-5E96F7028CC6}" name="exemple" displayName="exemple" ref="B1:J2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:J2" xr:uid="{EC6FFE91-4810-4CA8-A023-5E96F7028CC6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DA3AAEEB-2E0D-4B59-A102-92C75968BB77}" uniqueName="1" name="last_name" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{AFA44122-A1AC-45DA-AAA2-D6AEDE9B3630}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{30E066F8-ECF1-473C-ADA1-FAD6170ABC9E}" uniqueName="3" name="email" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{30C8329B-270D-4F1C-9C44-0A9781ACC315}" uniqueName="4" name="phone" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{EA9C9648-3E94-4D11-8DE1-DE0242CCC9C1}" uniqueName="5" name="availability" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4DA479B1-4234-4969-9D08-1605E6B648DE}" uniqueName="6" name="schedule_start" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{D551D13F-2F28-4DD8-9994-C857FBFBA8CE}" uniqueName="7" name="schedule_end" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{FE7BAC7E-55B4-4871-8546-9F7D4E177AEC}" uniqueName="8" name="competences" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4DA479B1-4234-4969-9D08-1605E6B648DE}" uniqueName="6" name="schedule_start" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D551D13F-2F28-4DD8-9994-C857FBFBA8CE}" uniqueName="7" name="schedule_end" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FE7BAC7E-55B4-4871-8546-9F7D4E177AEC}" uniqueName="8" name="competences" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{379B95E8-60B1-4F6E-9F63-46AE5F6F5631}" uniqueName="9" name="password" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,86 +574,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA9EA6-7616-41A8-B3F0-AC27A5FAF874}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>1234567890</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{84F45CB1-9A9C-4968-9585-6ACB52FB315E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -600,7 +674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,9 +684,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1065C765-68DB-4AEE-B0FE-F714D8DF2210}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1065C765-68DB-4AEE-B0FE-F714D8DF2210}"/>
 </file>